--- a/Helper_ExcelReader/Assets/ExcelReader/Example/Excel/Pokemon.xlsx
+++ b/Helper_ExcelReader/Assets/ExcelReader/Example/Excel/Pokemon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameLife\Projects\Unity\Unity_Helper_ExcelReader\Helper_ExcelReader\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\CodeGit\Unity_Helper_ExcelReader\Helper_ExcelReader\Assets\ExcelReader\Example\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0746E0-1F7E-4958-B616-DE7E4BA980F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AD4AD7-1F36-4B92-A113-FE77699FF947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{EC46C200-DFF0-4ADB-821B-0865625DE0DA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{EC46C200-DFF0-4ADB-821B-0865625DE0DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Pokemon" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jienijieni</t>
+    <t>杰尼杰尼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,20 +565,20 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -604,7 +604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -656,7 +656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -682,7 +682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -708,7 +708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
